--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 125/S&P500_returns_compared_annual.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 125/S&P500_returns_compared_annual.xlsx
@@ -501,13 +501,13 @@
         <v>0.04823062108356169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04924183789807882</v>
+        <v>0.05119691541643898</v>
       </c>
       <c r="H2" t="n">
-        <v>2.096628224557089</v>
+        <v>6.150230426720112</v>
       </c>
       <c r="I2" t="n">
-        <v>65.32370185863876</v>
+        <v>-24.5840242882127</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.03835660347027155</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03855755653298253</v>
+        <v>0.04455132721935363</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5239073445768875</v>
+        <v>16.15034489141701</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.4527679884705402</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.456455722360596</v>
+        <v>-0.461257268951211</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8144864442632254</v>
+        <v>-1.874973650267943</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.4788349786360374</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4517710280378684</v>
+        <v>-0.4742149168491753</v>
       </c>
       <c r="H5" t="n">
-        <v>-5.652041268008604</v>
+        <v>0.9648546979634489</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2336316508151194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2293532413216006</v>
+        <v>0.239061495696907</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.831262792773086</v>
+        <v>2.324105001545529</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2205746116218639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2478789389984039</v>
+        <v>0.2649980624095021</v>
       </c>
       <c r="H7" t="n">
-        <v>12.37872626218127</v>
+        <v>20.1398748754432</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1668064381739801</v>
       </c>
       <c r="G8" t="n">
-        <v>0.170985951499497</v>
+        <v>0.1779567577025408</v>
       </c>
       <c r="H8" t="n">
-        <v>2.505606720741576</v>
+        <v>6.684585829313637</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1720113297547816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1631152888087227</v>
+        <v>0.1668992423982414</v>
       </c>
       <c r="H9" t="n">
-        <v>-5.171776160756991</v>
+        <v>-2.971948047740788</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.00473948184538576</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01099666397255377</v>
+        <v>-0.009028579178557301</v>
       </c>
       <c r="H10" t="n">
-        <v>132.0224938356889</v>
+        <v>-90.49717823789743</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0146552956725634</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01078202601200455</v>
+        <v>-0.01402675856585675</v>
       </c>
       <c r="H11" t="n">
-        <v>-26.42914716357521</v>
+        <v>4.288805362578603</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1367222749794492</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1438326361025316</v>
+        <v>0.1310188964088069</v>
       </c>
       <c r="H12" t="n">
-        <v>5.200587193382481</v>
+        <v>-4.171506487512419</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.1246375821478671</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1360851392304702</v>
+        <v>0.136715495372608</v>
       </c>
       <c r="H13" t="n">
-        <v>9.184675188116193</v>
+        <v>9.690426448109315</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2473334756068372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2697952521839548</v>
+        <v>0.2509526485824108</v>
       </c>
       <c r="H14" t="n">
-        <v>9.081575602334951</v>
+        <v>1.463276641665222</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2526770099516101</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2666150251527357</v>
+        <v>0.2557921396537237</v>
       </c>
       <c r="H15" t="n">
-        <v>5.516139043989359</v>
+        <v>1.232850468948566</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1534692709482307</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1391249215810509</v>
+        <v>0.1445819636807536</v>
       </c>
       <c r="H16" t="n">
-        <v>-9.346724121741969</v>
+        <v>-5.790936004690498</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1510151984036966</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1381422266565243</v>
+        <v>0.140313595722625</v>
       </c>
       <c r="H17" t="n">
-        <v>-8.52428886843564</v>
+        <v>-7.086440831249232</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.01637490625494815</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01024276382685916</v>
+        <v>0.002202029218438929</v>
       </c>
       <c r="H18" t="n">
-        <v>-37.44841242212295</v>
+        <v>113.4475836634089</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.0008420639130941139</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01562328401070344</v>
+        <v>-0.007329632573096474</v>
       </c>
       <c r="H19" t="n">
-        <v>1755.356080193083</v>
+        <v>-770.4366092787629</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1386621728908525</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1425278473176222</v>
+        <v>0.1496833600876102</v>
       </c>
       <c r="H20" t="n">
-        <v>2.787836326358842</v>
+        <v>7.948229114679317</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1430944751915809</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1485056956577492</v>
+        <v>0.1473467454649414</v>
       </c>
       <c r="H21" t="n">
-        <v>3.781571901307546</v>
+        <v>2.97165230709808</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.186217385980056</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1775661855411223</v>
+        <v>0.161109852355796</v>
       </c>
       <c r="H22" t="n">
-        <v>-4.645753345426211</v>
+        <v>-13.48291594370733</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.179460504226912</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1688763060567578</v>
+        <v>0.1731968744659658</v>
       </c>
       <c r="H23" t="n">
-        <v>-5.897786934094103</v>
+        <v>-3.490255300423321</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0943972626856821</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1023298818454148</v>
+        <v>-0.09804521268032974</v>
       </c>
       <c r="H24" t="n">
-        <v>8.403441936813595</v>
+        <v>-3.864465865704546</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.09960845456872909</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1118856281847088</v>
+        <v>-0.09845987567431159</v>
       </c>
       <c r="H25" t="n">
-        <v>12.32543328689891</v>
+        <v>1.15309378043305</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2301404426212312</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2386763813046134</v>
+        <v>0.2456450350663368</v>
       </c>
       <c r="H26" t="n">
-        <v>3.70901289063339</v>
+        <v>6.737013394305193</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2325722382365865</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2314522267034649</v>
+        <v>0.2351310848575521</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.4815757639921905</v>
+        <v>1.100237345767212</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.05880326267593137</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05526672511561317</v>
+        <v>0.06596904111547569</v>
       </c>
       <c r="H28" t="n">
-        <v>-6.014185947144279</v>
+        <v>12.18602185228292</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.07058452141033789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05281021269731671</v>
+        <v>0.0710654585591643</v>
       </c>
       <c r="H29" t="n">
-        <v>-25.18159556497033</v>
+        <v>0.6813634763215546</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 125/S&P500_returns_compared_annual.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 125/S&P500_returns_compared_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04823062108356169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05119691541643898</v>
+        <v>0.04534360234373833</v>
       </c>
       <c r="H2" t="n">
-        <v>6.150230426720112</v>
+        <v>-5.985862663517158</v>
       </c>
       <c r="I2" t="n">
-        <v>-24.5840242882127</v>
+        <v>-56.8029598418855</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.03835660347027155</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04455132721935363</v>
+        <v>0.03407287826542454</v>
       </c>
       <c r="H3" t="n">
-        <v>16.15034489141701</v>
+        <v>-11.16815572100155</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.4527679884705402</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.461257268951211</v>
+        <v>-0.4589643785384184</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.874973650267943</v>
+        <v>-1.368557456725196</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.4788349786360374</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4742149168491753</v>
+        <v>-0.4610416503270645</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9648546979634489</v>
+        <v>3.715962513778179</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2336316508151194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.239061495696907</v>
+        <v>0.2382153218473858</v>
       </c>
       <c r="H6" t="n">
-        <v>2.324105001545529</v>
+        <v>1.961922118118152</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2205746116218639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2649980624095021</v>
+        <v>0.2421637034103828</v>
       </c>
       <c r="H7" t="n">
-        <v>20.1398748754432</v>
+        <v>9.787659436313353</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1668064381739801</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1779567577025408</v>
+        <v>0.1633661764750221</v>
       </c>
       <c r="H8" t="n">
-        <v>6.684585829313637</v>
+        <v>-2.062427407849683</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1720113297547816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1668992423982414</v>
+        <v>0.1713597861898632</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.971948047740788</v>
+        <v>-0.3787794477533725</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.00473948184538576</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.009028579178557301</v>
+        <v>-0.005012577247821179</v>
       </c>
       <c r="H10" t="n">
-        <v>-90.49717823789743</v>
+        <v>-5.762136270261233</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0146552956725634</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01402675856585675</v>
+        <v>-0.0208066575765793</v>
       </c>
       <c r="H11" t="n">
-        <v>4.288805362578603</v>
+        <v>-41.97364585098097</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1367222749794492</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1310188964088069</v>
+        <v>0.1336429190736881</v>
       </c>
       <c r="H12" t="n">
-        <v>-4.171506487512419</v>
+        <v>-2.252270821432676</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.1246375821478671</v>
       </c>
       <c r="G13" t="n">
-        <v>0.136715495372608</v>
+        <v>0.1301401762167157</v>
       </c>
       <c r="H13" t="n">
-        <v>9.690426448109315</v>
+        <v>4.41487549262665</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2473334756068372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2509526485824108</v>
+        <v>0.2581042854651651</v>
       </c>
       <c r="H14" t="n">
-        <v>1.463276641665222</v>
+        <v>4.354772370339903</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2526770099516101</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2557921396537237</v>
+        <v>0.2546881009330059</v>
       </c>
       <c r="H15" t="n">
-        <v>1.232850468948566</v>
+        <v>0.795913716796391</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1534692709482307</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1445819636807536</v>
+        <v>0.1377720098139198</v>
       </c>
       <c r="H16" t="n">
-        <v>-5.790936004690498</v>
+        <v>-10.22827634309022</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1510151984036966</v>
       </c>
       <c r="G17" t="n">
-        <v>0.140313595722625</v>
+        <v>0.1396708649494447</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.086440831249232</v>
+        <v>-7.512047511884214</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.01637490625494815</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002202029218438929</v>
+        <v>-0.004264617492738094</v>
       </c>
       <c r="H18" t="n">
-        <v>113.4475836634089</v>
+        <v>73.95638529869801</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.0008420639130941139</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.007329632573096474</v>
+        <v>-0.01435951328948666</v>
       </c>
       <c r="H19" t="n">
-        <v>-770.4366092787629</v>
+        <v>-1605.275937633223</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1386621728908525</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1496833600876102</v>
+        <v>0.1351447394418686</v>
       </c>
       <c r="H20" t="n">
-        <v>7.948229114679317</v>
+        <v>-2.53669286702483</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1430944751915809</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1473467454649414</v>
+        <v>0.1459112239959534</v>
       </c>
       <c r="H21" t="n">
-        <v>2.97165230709808</v>
+        <v>1.968453918714429</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.186217385980056</v>
       </c>
       <c r="G22" t="n">
-        <v>0.161109852355796</v>
+        <v>0.1701605477493941</v>
       </c>
       <c r="H22" t="n">
-        <v>-13.48291594370733</v>
+        <v>-8.622631096530156</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.179460504226912</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1731968744659658</v>
+        <v>0.1722568318382683</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.490255300423321</v>
+        <v>-4.014071185008659</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0943972626856821</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.09804521268032974</v>
+        <v>-0.09542871741270255</v>
       </c>
       <c r="H24" t="n">
-        <v>-3.864465865704546</v>
+        <v>-1.092674403552268</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.09960845456872909</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.09845987567431159</v>
+        <v>-0.101974914344438</v>
       </c>
       <c r="H25" t="n">
-        <v>1.15309378043305</v>
+        <v>-2.375761963133436</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2301404426212312</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2456450350663368</v>
+        <v>0.2292643023411338</v>
       </c>
       <c r="H26" t="n">
-        <v>6.737013394305193</v>
+        <v>-0.3806980946583911</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2325722382365865</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2351310848575521</v>
+        <v>0.2412214548313572</v>
       </c>
       <c r="H27" t="n">
-        <v>1.100237345767212</v>
+        <v>3.718937677321665</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.05880326267593137</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06596904111547569</v>
+        <v>0.05996377679399593</v>
       </c>
       <c r="H28" t="n">
-        <v>12.18602185228292</v>
+        <v>1.973553958154038</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,14 +1394,14 @@
         <v>0.07058452141033789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0710654585591643</v>
+        <v>0.08177874276486251</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6813634763215546</v>
+        <v>15.85931466397264</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>